--- a/basicDiscountRuleset.xlsx
+++ b/basicDiscountRuleset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinwong/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC12865B-0D37-7145-8DF5-46D1B7DE09FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453B7F77-8A2F-E84D-89D1-8702B314646C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{D5A23C56-0455-4533-A6A2-27AD40A82DED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
   <si>
     <t>RuleSet</t>
   </si>
@@ -73,15 +73,9 @@
     <t>APE To</t>
   </si>
   <si>
-    <t>DISCOUNT POLICY YEAR</t>
-  </si>
-  <si>
     <t>$plan: SelectedPlan</t>
   </si>
   <si>
-    <t>payTerm == $1</t>
-  </si>
-  <si>
     <t>PAY TERM</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>PLAN CODE</t>
   </si>
   <si>
-    <t>DISCOUNT RATE OFFER (in %)</t>
-  </si>
-  <si>
     <t>ELIGIBLE CAMPAIGN CODE</t>
   </si>
   <si>
@@ -106,24 +97,12 @@
     <t>com.ctflife.discount</t>
   </si>
   <si>
-    <t>"2-pay"</t>
-  </si>
-  <si>
-    <t>"5-pay"</t>
-  </si>
-  <si>
-    <t>"10-pay"</t>
-  </si>
-  <si>
     <t>"PD001"</t>
   </si>
   <si>
     <t>com.ctflife.discount.Customer, com.ctflife.discount.SelectedPlan, java.util.List</t>
   </si>
   <si>
-    <t>"SP"</t>
-  </si>
-  <si>
     <t>"PRIMED001"</t>
   </si>
   <si>
@@ -133,36 +112,9 @@
     <t>"FAMCAREDIS"</t>
   </si>
   <si>
-    <t>DISCOUNT (in # OF MONTHS)</t>
-  </si>
-  <si>
-    <t>([$1,$2,$3,$4,$5,$6,$7,$8,$9,$10,$11,$12]).contains(planCode)</t>
-  </si>
-  <si>
-    <t>"RBWLI3","RBWLI3A","Nil","Nil","Nil","Nil","Nil","Nil","Nil","Nil","Nil","Nil"</t>
-  </si>
-  <si>
-    <t>"HB4CIL","HB4CILA","Nil","Nil","Nil","Nil","Nil","Nil","Nil","Nil","Nil","Nil"</t>
-  </si>
-  <si>
-    <t>"NFSU","Nil","Nil","Nil","Nil","Nil","Nil","Nil","Nil","Nil","Nil","Nil"</t>
-  </si>
-  <si>
-    <t>"MW2IU","MW2IUA","MW2IH","MW2IHA","MW2IC","MW2ICA","Nil,"Nil","Nil,"Nil","Nil,"Nil"</t>
-  </si>
-  <si>
     <t>"MYWEALTHDIS"</t>
   </si>
   <si>
-    <t>$plan.setPolicyYear($param);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTAINS </t>
-  </si>
-  <si>
-    <t>"LSPAH","LSPAHA","LSPAHR","LSPAHRA","LSPAU","LSPAUA","LSPAUR","LSPAURA","Nil,"Nil","Nil,"Nil"</t>
-  </si>
-  <si>
     <t>ANNUAL PREMIUM Greater Than in $</t>
   </si>
   <si>
@@ -170,6 +122,282 @@
   </si>
   <si>
     <t>ap &gt;= $1</t>
+  </si>
+  <si>
+    <t>"RBWLI3","RBWLI3A"</t>
+  </si>
+  <si>
+    <t>"NFSU"</t>
+  </si>
+  <si>
+    <t>"HB4CIL","HB4CILA"</t>
+  </si>
+  <si>
+    <t>"MW2IU","MW2IUA","MW2IH","MW2IHA","MW2IC","MW2ICA"</t>
+  </si>
+  <si>
+    <t>"LSPAH","LSPAHA","LSPAHR","LSPAHRA","LSPAU","LSPAUA","LSPAUR","LSPAURA"</t>
+  </si>
+  <si>
+    <t>planCode in ($param)</t>
+  </si>
+  <si>
+    <t>Rule-1</t>
+  </si>
+  <si>
+    <t>Rule-2</t>
+  </si>
+  <si>
+    <t>Rule-3</t>
+  </si>
+  <si>
+    <t>Rule-4</t>
+  </si>
+  <si>
+    <t>Rule-5</t>
+  </si>
+  <si>
+    <t>Rule-6</t>
+  </si>
+  <si>
+    <t>Rule-7</t>
+  </si>
+  <si>
+    <t>Rule-8</t>
+  </si>
+  <si>
+    <t>Rule-9</t>
+  </si>
+  <si>
+    <t>Rule-10</t>
+  </si>
+  <si>
+    <t>Rule-11</t>
+  </si>
+  <si>
+    <t>Rule-12</t>
+  </si>
+  <si>
+    <t>Rule-13</t>
+  </si>
+  <si>
+    <t>APE MEASURED?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>isAPE=="$1"</t>
+  </si>
+  <si>
+    <t>payTerm == "$1"</t>
+  </si>
+  <si>
+    <t>2-pay</t>
+  </si>
+  <si>
+    <t>5-pay</t>
+  </si>
+  <si>
+    <t>10-pay</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>$customer.setDiscountFixedAmount($param);</t>
+  </si>
+  <si>
+    <t>"3/1"</t>
+  </si>
+  <si>
+    <t>DISCOUNT RATE OFFER (in %) / APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>"4/1"</t>
+  </si>
+  <si>
+    <t>"5/1"</t>
+  </si>
+  <si>
+    <t>"6/1"</t>
+  </si>
+  <si>
+    <t>"7/1"</t>
+  </si>
+  <si>
+    <t>"8/1"</t>
+  </si>
+  <si>
+    <t>"9/1"</t>
+  </si>
+  <si>
+    <t>"10/1"</t>
+  </si>
+  <si>
+    <t>"11/1"</t>
+  </si>
+  <si>
+    <t>"4/NA"</t>
+  </si>
+  <si>
+    <t>"2/1"</t>
+  </si>
+  <si>
+    <t>"1/1"</t>
+  </si>
+  <si>
+    <t>Rule-14</t>
+  </si>
+  <si>
+    <t>"QDAP2"</t>
+  </si>
+  <si>
+    <t>"QDAP2STAFF"</t>
+  </si>
+  <si>
+    <t>"12/1","12/2","12/3","12/4","12/5"</t>
+  </si>
+  <si>
+    <t>DISCOUNT in FIXED AMOUNT OFFER / APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>DISCOUNT in # OF MONTHS OFFER / APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>Rule-15</t>
+  </si>
+  <si>
+    <t>Rule-16</t>
+  </si>
+  <si>
+    <t>"ALLExceptILAS"</t>
+  </si>
+  <si>
+    <t>"1000/1"</t>
+  </si>
+  <si>
+    <t>"500/1"</t>
+  </si>
+  <si>
+    <t>"PDALL"</t>
+  </si>
+  <si>
+    <t>Rule-17</t>
+  </si>
+  <si>
+    <t>Rule-18</t>
+  </si>
+  <si>
+    <t>"CFPU","CFPUR","CFPUA","CFPURA"</t>
+  </si>
+  <si>
+    <t>coExistPlanCode in ($param)</t>
+  </si>
+  <si>
+    <t>"MEDUR","MEDURA"</t>
+  </si>
+  <si>
+    <t>"TARGETCAREXMEDICARE"</t>
+  </si>
+  <si>
+    <t>$customer.setDiscountRateCoExistPlan($param);</t>
+  </si>
+  <si>
+    <t>"20/1"</t>
+  </si>
+  <si>
+    <t>DISCOUNT RATE OFFER (in %) of Co-Exist Plan/ APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>$customer.setDiscountFixedAmountCoExistPlan($param);</t>
+  </si>
+  <si>
+    <t>DISCOUNT in FIXED AMOUNT OFFER of Co-Exist Plan / APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>$customer.setDiscountMonthsCoExistPlan($param);</t>
+  </si>
+  <si>
+    <t>DISCOUNT in # OF MONTHS OFFER of Co-Exist Plan/ APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>Rule-19</t>
+  </si>
+  <si>
+    <t>"VFHNWAH","VFHNWWXH","VFHNWWH","VFHNWAHR"," VFHNWWXHR"," VFHNWWHR","VFHNWAUR"," VFHNWWXUR"," VFHNWWUR"</t>
+  </si>
+  <si>
+    <t>Rule-20</t>
+  </si>
+  <si>
+    <t>"2.5/1"</t>
+  </si>
+  <si>
+    <t>"FAMGROUPPURCHASE"</t>
+  </si>
+  <si>
+    <t>Rule-21</t>
+  </si>
+  <si>
+    <t>"NB2CIL","NB2CILA"</t>
+  </si>
+  <si>
+    <t>"2/2"</t>
+  </si>
+  <si>
+    <t>"CIIDSOFFER"</t>
+  </si>
+  <si>
+    <t>CO-EXIST PURCHASE PLAN</t>
+  </si>
+  <si>
+    <t>DIFFERENT INURED in Existing DESIGNATED POLICY</t>
+  </si>
+  <si>
+    <t>isDiffInsured=="$1"</t>
+  </si>
+  <si>
+    <t>Rule-22</t>
+  </si>
+  <si>
+    <t>Rule-23</t>
+  </si>
+  <si>
+    <t>"1.5/1"</t>
+  </si>
+  <si>
+    <t>POLICY HOLDER WITH DESIGNATED POLICY</t>
+  </si>
+  <si>
+    <t>"MW2IU","MW2IUA","MW2IH","MW2IHA","MW2IC","MW2ICAMW2GU","MW2GUA","MW2GH","MW2GHA","MW2GC","MW2GCA"</t>
+  </si>
+  <si>
+    <t>"NHNMA2HR","NHNMA2HRA","NHNMA2UR","NHNMA2URA","NHNMWX2HR","NHNMWX2HRA","NHNMWX2UR","NHNMWX2URA","NHNMW2HR","NHNMW2HRA","NHNMW2UR","NHNMW2URA"</t>
+  </si>
+  <si>
+    <t>Rule-24</t>
+  </si>
+  <si>
+    <t>Rule-25</t>
+  </si>
+  <si>
+    <t>existingPolicy in ($param)</t>
+  </si>
+  <si>
+    <t>numEligFamMem&lt;$1</t>
+  </si>
+  <si>
+    <t>numEligFamMem&gt;=$1</t>
+  </si>
+  <si>
+    <t>NUMBER OF FAMILY MEMBERS ELIGIBLE From</t>
+  </si>
+  <si>
+    <t>NUMBER OF FAMILY MEMBERS ELIGIBLE To</t>
   </si>
 </sst>
 </file>
@@ -225,17 +453,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,58 +781,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D749665A-A142-4C23-9D48-49D129565435}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1"/>
-    <col min="8" max="8" width="32.5" customWidth="1"/>
-    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34" customWidth="1"/>
-    <col min="11" max="11" width="29.1640625" customWidth="1"/>
-    <col min="12" max="12" width="26.1640625" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="30.6640625" customWidth="1"/>
+    <col min="15" max="15" width="34.6640625" customWidth="1"/>
+    <col min="16" max="16" width="43.1640625" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" customWidth="1"/>
+    <col min="18" max="18" width="36.5" customWidth="1"/>
+    <col min="19" max="19" width="31" customWidth="1"/>
+    <col min="20" max="20" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -611,7 +848,7 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
@@ -624,101 +861,175 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" t="s">
+      <c r="N6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" t="s">
+      <c r="P6" t="s">
         <v>6</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Q6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="J9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
+    </row>
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
       </c>
       <c r="B10">
         <v>10000</v>
@@ -726,28 +1037,25 @@
       <c r="C10">
         <v>30000</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
       </c>
       <c r="B11">
         <v>30000</v>
@@ -756,53 +1064,47 @@
         <v>80000</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11">
-        <v>-1</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
       </c>
       <c r="B12">
         <v>80000</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12">
-        <v>-1</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>4</v>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
       </c>
       <c r="B13">
         <v>10000</v>
@@ -810,28 +1112,25 @@
       <c r="C13">
         <v>30000</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13">
-        <v>-1</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>5</v>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
       </c>
       <c r="B14">
         <v>30000</v>
@@ -839,54 +1138,48 @@
       <c r="C14">
         <v>80000</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14">
-        <v>-1</v>
-      </c>
-      <c r="I14">
-        <v>7</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>6</v>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
       </c>
       <c r="B15">
         <v>80000</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15">
-        <v>-1</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>7</v>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>41</v>
       </c>
       <c r="B16">
         <v>10000</v>
@@ -894,28 +1187,25 @@
       <c r="C16">
         <v>30000</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>-1</v>
-      </c>
-      <c r="I16">
-        <v>9</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>8</v>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
       </c>
       <c r="B17">
         <v>30000</v>
@@ -923,163 +1213,385 @@
       <c r="C17">
         <v>80000</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>9</v>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
       </c>
       <c r="B18">
         <v>80000</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>67</v>
+      </c>
+      <c r="S18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
+        <v>69</v>
+      </c>
+      <c r="S20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>69</v>
+      </c>
+      <c r="S23" t="s">
         <v>25</v>
       </c>
-      <c r="H18">
-        <v>-1</v>
-      </c>
-      <c r="I18">
-        <v>11</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19">
-        <v>-1</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20">
+    </row>
+    <row r="24" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24">
+        <v>30000</v>
+      </c>
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25">
+        <v>30000</v>
+      </c>
+      <c r="M25" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26">
+        <v>30000</v>
+      </c>
+      <c r="M26" t="s">
+        <v>110</v>
+      </c>
+      <c r="S26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>74</v>
+      </c>
+      <c r="S27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <v>5000</v>
+      </c>
+      <c r="C28">
+        <v>10000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28" t="s">
+        <v>81</v>
+      </c>
+      <c r="S28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O29" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>90</v>
+      </c>
+      <c r="R30" t="s">
+        <v>90</v>
+      </c>
+      <c r="S30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>90</v>
+      </c>
+      <c r="R31" t="s">
+        <v>90</v>
+      </c>
+      <c r="S31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="I20">
-        <v>-1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>-1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23">
-        <v>30000</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>-1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>41</v>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" t="s">
+        <v>99</v>
+      </c>
+      <c r="S32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M33" t="s">
+        <v>58</v>
+      </c>
+      <c r="S33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" t="s">
+        <v>103</v>
+      </c>
+      <c r="S34" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Q10" r:id="rId1" display="3@1" xr:uid="{13E98660-509C-9D44-B41E-8AE8327D71C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/basicDiscountRuleset.xlsx
+++ b/basicDiscountRuleset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinwong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinwong/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453B7F77-8A2F-E84D-89D1-8702B314646C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E599A3EC-9878-F447-AAAF-0A572E8E8ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{D5A23C56-0455-4533-A6A2-27AD40A82DED}"/>
   </bookViews>
@@ -91,18 +91,12 @@
     <t>ELIGIBLE CAMPAIGN CODE</t>
   </si>
   <si>
-    <t>Calculate premium discounted amount for basic discount under Campaign</t>
-  </si>
-  <si>
     <t>com.ctflife.discount</t>
   </si>
   <si>
     <t>"PD001"</t>
   </si>
   <si>
-    <t>com.ctflife.discount.Customer, com.ctflife.discount.SelectedPlan, java.util.List</t>
-  </si>
-  <si>
     <t>"PRIMED001"</t>
   </si>
   <si>
@@ -211,43 +205,10 @@
     <t>$customer.setDiscountFixedAmount($param);</t>
   </si>
   <si>
-    <t>"3/1"</t>
-  </si>
-  <si>
-    <t>DISCOUNT RATE OFFER (in %) / APPLIED POLICY YEAR</t>
-  </si>
-  <si>
-    <t>"4/1"</t>
-  </si>
-  <si>
-    <t>"5/1"</t>
-  </si>
-  <si>
-    <t>"6/1"</t>
-  </si>
-  <si>
-    <t>"7/1"</t>
-  </si>
-  <si>
-    <t>"8/1"</t>
-  </si>
-  <si>
-    <t>"9/1"</t>
-  </si>
-  <si>
-    <t>"10/1"</t>
-  </si>
-  <si>
-    <t>"11/1"</t>
-  </si>
-  <si>
-    <t>"4/NA"</t>
-  </si>
-  <si>
-    <t>"2/1"</t>
-  </si>
-  <si>
-    <t>"1/1"</t>
+    <t>DISCOUNT RATE OFFER (in %) @ APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>"3@1"</t>
   </si>
   <si>
     <t>Rule-14</t>
@@ -259,15 +220,6 @@
     <t>"QDAP2STAFF"</t>
   </si>
   <si>
-    <t>"12/1","12/2","12/3","12/4","12/5"</t>
-  </si>
-  <si>
-    <t>DISCOUNT in FIXED AMOUNT OFFER / APPLIED POLICY YEAR</t>
-  </si>
-  <si>
-    <t>DISCOUNT in # OF MONTHS OFFER / APPLIED POLICY YEAR</t>
-  </si>
-  <si>
     <t>Rule-15</t>
   </si>
   <si>
@@ -277,12 +229,6 @@
     <t>"ALLExceptILAS"</t>
   </si>
   <si>
-    <t>"1000/1"</t>
-  </si>
-  <si>
-    <t>"500/1"</t>
-  </si>
-  <si>
     <t>"PDALL"</t>
   </si>
   <si>
@@ -307,24 +253,12 @@
     <t>$customer.setDiscountRateCoExistPlan($param);</t>
   </si>
   <si>
-    <t>"20/1"</t>
-  </si>
-  <si>
-    <t>DISCOUNT RATE OFFER (in %) of Co-Exist Plan/ APPLIED POLICY YEAR</t>
-  </si>
-  <si>
     <t>$customer.setDiscountFixedAmountCoExistPlan($param);</t>
   </si>
   <si>
-    <t>DISCOUNT in FIXED AMOUNT OFFER of Co-Exist Plan / APPLIED POLICY YEAR</t>
-  </si>
-  <si>
     <t>$customer.setDiscountMonthsCoExistPlan($param);</t>
   </si>
   <si>
-    <t>DISCOUNT in # OF MONTHS OFFER of Co-Exist Plan/ APPLIED POLICY YEAR</t>
-  </si>
-  <si>
     <t>Rule-19</t>
   </si>
   <si>
@@ -334,9 +268,6 @@
     <t>Rule-20</t>
   </si>
   <si>
-    <t>"2.5/1"</t>
-  </si>
-  <si>
     <t>"FAMGROUPPURCHASE"</t>
   </si>
   <si>
@@ -346,9 +277,6 @@
     <t>"NB2CIL","NB2CILA"</t>
   </si>
   <si>
-    <t>"2/2"</t>
-  </si>
-  <si>
     <t>"CIIDSOFFER"</t>
   </si>
   <si>
@@ -367,12 +295,6 @@
     <t>Rule-23</t>
   </si>
   <si>
-    <t>"1.5/1"</t>
-  </si>
-  <si>
-    <t>POLICY HOLDER WITH DESIGNATED POLICY</t>
-  </si>
-  <si>
     <t>"MW2IU","MW2IUA","MW2IH","MW2IHA","MW2IC","MW2ICAMW2GU","MW2GUA","MW2GH","MW2GHA","MW2GC","MW2GCA"</t>
   </si>
   <si>
@@ -398,6 +320,84 @@
   </si>
   <si>
     <t>NUMBER OF FAMILY MEMBERS ELIGIBLE To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN CODE of DESIGNATED POLICY of POLICY HOLDER </t>
+  </si>
+  <si>
+    <t>"2@1"</t>
+  </si>
+  <si>
+    <t>DISCOUNT in # OF MONTHS OFFER @ APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>"4@1"</t>
+  </si>
+  <si>
+    <t>"1@1"</t>
+  </si>
+  <si>
+    <t>"1.5@1"</t>
+  </si>
+  <si>
+    <t>"2.5@1"</t>
+  </si>
+  <si>
+    <t>"2@2"</t>
+  </si>
+  <si>
+    <t>DISCOUNT in # OF MONTHS OFFER of Co-Exist Plan@ APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>DISCOUNT in FIXED AMOUNT OFFER @ APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>"500@1"</t>
+  </si>
+  <si>
+    <t>"1000@1"</t>
+  </si>
+  <si>
+    <t>DISCOUNT in FIXED AMOUNT OFFER of Co-Exist Plan @ APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>"5@1"</t>
+  </si>
+  <si>
+    <t>"6@1"</t>
+  </si>
+  <si>
+    <t>"7@1"</t>
+  </si>
+  <si>
+    <t>"8@1"</t>
+  </si>
+  <si>
+    <t>"9@1"</t>
+  </si>
+  <si>
+    <t>"10@1"</t>
+  </si>
+  <si>
+    <t>"11@1"</t>
+  </si>
+  <si>
+    <t>"4@NA"</t>
+  </si>
+  <si>
+    <t>"12@1,12@2,12@3,12@4,12@5"</t>
+  </si>
+  <si>
+    <t>"20@1"</t>
+  </si>
+  <si>
+    <t>DISCOUNT RATE OFFER (in %) of Co-Exist Plan@ APPLIED POLICY YEAR</t>
+  </si>
+  <si>
+    <t>Check eligible discount campaign by customer and plan's metrics</t>
+  </si>
+  <si>
+    <t>com.ctflife.discount.Customer, com.ctflife.discount.SelectedPlan</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,8 +440,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -449,24 +461,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,12 +852,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
@@ -800,12 +867,12 @@
     <col min="10" max="10" width="16" style="3" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="30.6640625" customWidth="1"/>
-    <col min="15" max="15" width="34.6640625" customWidth="1"/>
-    <col min="16" max="16" width="43.1640625" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" customWidth="1"/>
-    <col min="18" max="18" width="36.5" customWidth="1"/>
-    <col min="19" max="19" width="31" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.5" customWidth="1"/>
+    <col min="16" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" customWidth="1"/>
     <col min="20" max="20" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -814,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -822,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -830,89 +897,91 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -922,114 +991,114 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="Q8" t="s">
         <v>9</v>
       </c>
       <c r="R8" t="s">
-        <v>89</v>
-      </c>
-      <c r="S8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="J9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="S9" s="5" t="s">
+      <c r="L9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>10000</v>
@@ -1038,24 +1107,24 @@
         <v>30000</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>30000</v>
@@ -1064,47 +1133,47 @@
         <v>80000</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="S11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>80000</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q12" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="S12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>10000</v>
@@ -1113,24 +1182,24 @@
         <v>30000</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="S13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>30000</v>
@@ -1139,47 +1208,47 @@
         <v>80000</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q14" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="S14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>80000</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q15" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="S15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>10000</v>
@@ -1188,24 +1257,24 @@
         <v>30000</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q16" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="S16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>30000</v>
@@ -1214,228 +1283,228 @@
         <v>80000</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q17" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="S17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>80000</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q18" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="S18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q19" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="S19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="S20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="I22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="S22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M23" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L24">
         <v>30000</v>
       </c>
       <c r="M24" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="S24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L25">
         <v>30000</v>
       </c>
       <c r="M25" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="S25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="L26">
         <v>30000</v>
       </c>
       <c r="M26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="S26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="Q27" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="S27" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B28">
         <v>5000</v>
@@ -1444,90 +1513,90 @@
         <v>10000</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="O28" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="S28" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>10000</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="S29" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="Q30" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="R30" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="S30" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="Q31" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="R31" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="S31" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1536,50 +1605,50 @@
         <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="M32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S32" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="M33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S33" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" t="s">
         <v>102</v>
       </c>
-      <c r="M34" t="s">
-        <v>103</v>
-      </c>
       <c r="S34" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
